--- a/mine/周报03/code/1FC/DATA_LR_1/record0423_DATA_LR_1.xlsx
+++ b/mine/周报03/code/1FC/DATA_LR_1/record0423_DATA_LR_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Deeplearning\AlexNet\02way\diagram\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\DeepLearning\mine\周报03\code\1FC\DATA_LR_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{108D1757-8ED4-4FFA-A257-A647BDC72F01}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8262B00-A9A6-4358-8BAE-EA7CB1E62F31}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15420" windowHeight="6270" xr2:uid="{F8AA004E-5170-456D-AA0B-546BC0E4BAA6}"/>
   </bookViews>
@@ -4040,6 +4040,1351 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Loss</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>trainLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>1.9151</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5537000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4279999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2877000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1792</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1338999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.097</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0810999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.069</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0728</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0543</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0439000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0348999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0398000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0383</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.0378000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0235000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0246999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0257000000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0150999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0232000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0158</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0074000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0056</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0081</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0168999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0063</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.99439999999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0085</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.99770000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0022</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.002</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98950000000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0026999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98980000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.9889</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.9778</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.99039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.99219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.98380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.97789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.98450000000000004</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.98560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.98360000000000003</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.98460000000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.9829</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.98560000000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.98609999999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.97460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.97929999999999995</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.9748</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.97489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.96809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.96930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.97670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.97550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.96809999999999996</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.97070000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.97670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.97240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.97189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.96989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.97809999999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.95940000000000003</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.97440000000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.97689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.74280000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.67649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.64839999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.62619999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.60489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.5907</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.57350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.56040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.5524</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.5373</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.52939999999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.51629999999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.50860000000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.49959999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.48709999999999998</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.4829</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.47470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.46639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.46079999999999999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.4536</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.44819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.43980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.43540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.43080000000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.42459999999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.42049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.41170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.40439999999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.40389999999999998</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.39639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.3846</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.39240000000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.38250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.38090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.37330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.36649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.36430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.35949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.3599</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.35470000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.35110000000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.26440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.23530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.2223</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.215</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.20669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.20250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.19470000000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.1915</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.1903</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.18459999999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.17929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.1812</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.17530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.17199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.17050000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.1694</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.1648</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.1628</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.1636</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.159</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.15909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.15989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.1545</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.1517</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.15129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.1477</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.1479</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.1482</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.14460000000000001</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.1431</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.14069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.1391</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.13800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.13750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.1356</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.1305</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.13350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.1295</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.13039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.1305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FDB-4CC6-9811-B41D8996C856}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>testLoss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$165</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="164"/>
+                <c:pt idx="0">
+                  <c:v>1.6956</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2937000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2574000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.214</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1658999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1405000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1206</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1741999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1839</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0701000000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0871</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.145</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0898000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0942000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0864</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0988</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0692999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0570999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0672999999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.1432</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.0317000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.0820000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0851999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.0109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0385</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0446</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0328999999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0414000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0512999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0507</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0914999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0628</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1032999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.98060000000000003</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.044</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0406</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1371</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0841000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0798000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0373000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.038</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0983000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0214000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0852999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0448</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.1096999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0319</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0811999999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0276000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.99070000000000003</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.1182000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0421</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0643</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.0470999999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.0072000000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0034000000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.0132000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.0727</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0167999999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99929999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.97219999999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.0976999999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.0347999999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.0978000000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.0458000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.98719999999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.0190999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.0417000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.9929</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.0068999999999999</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.0838000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.0046999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.0472999999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.0370999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.0359</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.0445</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.79720000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.77390000000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.76349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.75039999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.72550000000000003</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.72360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.72770000000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.70950000000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.71860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.73150000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.74419999999999997</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.73550000000000004</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.72140000000000004</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.72230000000000005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.73229999999999995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.72840000000000005</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.73370000000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.71650000000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.74039999999999995</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.7329</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.72609999999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.73809999999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.74939999999999996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.76239999999999997</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.74019999999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.7651</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.74519999999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.73440000000000005</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.77659999999999996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.76680000000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.76449999999999996</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.77180000000000004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.77749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.77259999999999995</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.79110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.76670000000000005</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.7268</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.72209999999999996</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.7369</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.7389</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.74239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.75260000000000005</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.75219999999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.75770000000000004</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.75729999999999997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.75249999999999995</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.7742</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.76729999999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.76939999999999997</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.77510000000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.77749999999999997</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.77339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.77629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.78979999999999995</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.78879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.78979999999999995</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.81069999999999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.80110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.81210000000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.81430000000000002</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.8085</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.82330000000000003</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.81169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.8155</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.81469999999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.81179999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.81840000000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.82220000000000004</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.81659999999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.82450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.83689999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9FDB-4CC6-9811-B41D8996C856}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="464016344"/>
+        <c:axId val="464018312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="464016344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464018312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464018312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464016344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4160,6 +5505,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -5193,6 +6578,522 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5813,6 +7714,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347219</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>137448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>383769</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45299</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD48697-63DC-4428-9BBC-6BC0BAD9A5BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6121,7 +8058,7 @@
   <dimension ref="A1:F165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
